--- a/data/0124修正_土壌データ+収量.xlsx
+++ b/data/0124修正_土壌データ+収量.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wakabayashikeita/Documents/GitHub/akita_daizu/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E29D78-BDA6-B04A-9A79-3F5AF6B2E8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1 - complete_1" sheetId="1" r:id="rId4"/>
+    <sheet name="シート1 - complete_1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
   <si>
     <t>圃場番号</t>
-  </si>
-  <si>
-    <t>現場測定_EC (㎳／㎝)</t>
   </si>
   <si>
     <t>現場測定_PH</t>
@@ -241,31 +247,7 @@
     <t>15%反収現物重量kg/10a</t>
   </si>
   <si>
-    <t>実験室測定_EC (㎳／㎝)</t>
-  </si>
-  <si>
     <t>実験室測定_pH</t>
-  </si>
-  <si>
-    <t>アンモニア態窒素 (mg N/100g)</t>
-  </si>
-  <si>
-    <t>硝酸態窒素 (mg N/100g)</t>
-  </si>
-  <si>
-    <t>可給隊窒素 (mg N/100g)</t>
-  </si>
-  <si>
-    <t>有効態リン酸 (mg P2O5/100g)</t>
-  </si>
-  <si>
-    <t>TC (%)</t>
-  </si>
-  <si>
-    <t>腐食 (%)</t>
-  </si>
-  <si>
-    <t>TN (%)</t>
   </si>
   <si>
     <t>典型普通砂質未熟土</t>
@@ -411,36 +393,62 @@
   <si>
     <t>才門四郎台161</t>
   </si>
+  <si>
+    <t>現場測定_EC(㎳／㎝)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC(%)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実験室測定_EC(㎳／㎝)</t>
+  </si>
+  <si>
+    <t>アンモニア態窒素(mgN/100g)</t>
+  </si>
+  <si>
+    <t>硝酸態窒素(mgN/100g)</t>
+  </si>
+  <si>
+    <t>可給隊窒素(mgN/100g)</t>
+  </si>
+  <si>
+    <t>有効態リン酸(mgP2O5/100g)</t>
+  </si>
+  <si>
+    <t>腐食(%)</t>
+  </si>
+  <si>
+    <t>TN(%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Tsukushi A Round Gothic Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -599,97 +607,155 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -891,7 +957,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -910,7 +976,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,7 +1006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -966,7 +1032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +1058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +1084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +1110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1122,7 +1188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,9 +1227,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1180,7 +1252,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1199,7 +1271,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +1297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1251,7 +1323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,7 +1349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1446,9 +1518,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1462,7 +1540,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1481,7 +1559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1537,7 +1615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1563,7 +1641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1589,7 +1667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,7 +1693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1641,7 +1719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1667,7 +1745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,7 +1771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1719,7 +1797,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1732,310 +1810,320 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CG114"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CD1" workbookViewId="0">
+      <selection activeCell="CE6" sqref="CE6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.8125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6016" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.4219" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.2109" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6016" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.2109" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.8125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6016" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.60156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6016" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.8125" style="1" customWidth="1"/>
-    <col min="14" max="22" width="10.2109" style="1" customWidth="1"/>
-    <col min="23" max="69" width="11.6016" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="1" customWidth="1"/>
+    <col min="14" max="22" width="10.140625" style="1" customWidth="1"/>
+    <col min="23" max="69" width="11.5703125" style="1" customWidth="1"/>
     <col min="70" max="70" width="18" style="1" customWidth="1"/>
     <col min="71" max="71" width="17" style="1" customWidth="1"/>
-    <col min="72" max="72" width="9.8125" style="1" customWidth="1"/>
-    <col min="73" max="73" width="37.6016" style="1" customWidth="1"/>
+    <col min="72" max="72" width="9.85546875" style="1" customWidth="1"/>
+    <col min="73" max="73" width="37.5703125" style="1" customWidth="1"/>
     <col min="74" max="74" width="22" style="1" customWidth="1"/>
-    <col min="75" max="75" width="29.2109" style="1" customWidth="1"/>
-    <col min="76" max="85" width="25.2109" style="1" customWidth="1"/>
-    <col min="86" max="16384" width="10" style="1" customWidth="1"/>
+    <col min="75" max="75" width="29.140625" style="1" customWidth="1"/>
+    <col min="76" max="85" width="25.140625" style="1" customWidth="1"/>
+    <col min="86" max="86" width="10" style="1" customWidth="1"/>
+    <col min="87" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:85" ht="19" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s" s="2">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s" s="2">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s" s="2">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s" s="2">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s" s="2">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s" s="2">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s" s="2">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s" s="2">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s" s="2">
+      <c r="AU1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s" s="2">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s" s="2">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s" s="2">
+      <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s" s="2">
+      <c r="AY1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s" s="2">
+      <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s" s="2">
+      <c r="BA1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s" s="2">
+      <c r="BB1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s" s="2">
+      <c r="BC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s" s="2">
+      <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s" s="2">
+      <c r="BE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s" s="2">
+      <c r="BF1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s" s="2">
+      <c r="BG1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s" s="2">
+      <c r="BH1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s" s="2">
+      <c r="BI1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s" s="2">
+      <c r="BJ1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s" s="2">
+      <c r="BK1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s" s="2">
+      <c r="BL1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s" s="2">
+      <c r="BM1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s" s="2">
+      <c r="BN1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s" s="2">
+      <c r="BO1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s" s="2">
+      <c r="BP1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s" s="2">
+      <c r="BQ1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s" s="2">
+      <c r="BR1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s" s="2">
+      <c r="BS1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s" s="2">
+      <c r="BT1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s" s="2">
+      <c r="BU1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s" s="2">
+      <c r="BV1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s" s="2">
+      <c r="BW1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s" s="2">
+      <c r="BX1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s" s="2">
+      <c r="BY1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="BZ1" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="CA1" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="CB1" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="CC1" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="CD1" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="CE1" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="CF1" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="CG1" t="s" s="2">
-        <v>84</v>
+      <c r="CA1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="2" ht="18.65" customHeight="1">
+    <row r="2" spans="1:85" ht="18.75" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2235,11 +2323,11 @@
       <c r="BO2" s="7">
         <v>44381</v>
       </c>
-      <c r="BP2" t="s" s="8">
-        <v>85</v>
-      </c>
-      <c r="BQ2" t="s" s="8">
-        <v>86</v>
+      <c r="BP2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ2" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="BR2" s="5">
         <v>723</v>
@@ -2250,8 +2338,8 @@
       <c r="BT2" s="5">
         <v>5387</v>
       </c>
-      <c r="BU2" t="s" s="8">
-        <v>87</v>
+      <c r="BU2" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="BV2" s="5">
         <v>134</v>
@@ -2275,7 +2363,7 @@
         <v>0.62</v>
       </c>
       <c r="CC2" s="5">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="CD2" s="5">
         <v>37</v>
@@ -2290,7 +2378,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="3" ht="18.3" customHeight="1">
+    <row r="3" spans="1:85" ht="18.25" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2488,8 +2576,8 @@
         <v>2684</v>
       </c>
       <c r="BO3" s="13"/>
-      <c r="BP3" t="s" s="12">
-        <v>85</v>
+      <c r="BP3" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ3" s="14"/>
       <c r="BR3" s="14"/>
@@ -2512,7 +2600,7 @@
         <v>1.36</v>
       </c>
       <c r="CC3" s="11">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="CD3" s="11">
         <v>22</v>
@@ -2524,10 +2612,10 @@
         <v>0.46</v>
       </c>
       <c r="CG3" s="11">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" ht="18.3" customHeight="1">
+    <row r="4" spans="1:85" ht="18.25" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2725,8 +2813,8 @@
         <v>2684</v>
       </c>
       <c r="BO4" s="13"/>
-      <c r="BP4" t="s" s="12">
-        <v>85</v>
+      <c r="BP4" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ4" s="14"/>
       <c r="BR4" s="14"/>
@@ -2764,12 +2852,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" ht="18.3" customHeight="1">
+    <row r="5" spans="1:85" ht="18.25" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>17.33</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="C5" s="11">
         <v>6.49</v>
@@ -2962,8 +3050,8 @@
         <v>2684</v>
       </c>
       <c r="BO5" s="13"/>
-      <c r="BP5" t="s" s="12">
-        <v>85</v>
+      <c r="BP5" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ5" s="14"/>
       <c r="BR5" s="14"/>
@@ -2998,10 +3086,10 @@
         <v>0.79</v>
       </c>
       <c r="CG5" s="11">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
     </row>
-    <row r="6" ht="18.3" customHeight="1">
+    <row r="6" spans="1:85" ht="18.25" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3201,11 +3289,11 @@
       <c r="BO6" s="13">
         <v>44381</v>
       </c>
-      <c r="BP6" t="s" s="12">
-        <v>85</v>
-      </c>
-      <c r="BQ6" t="s" s="12">
-        <v>86</v>
+      <c r="BP6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ6" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="BR6" s="11">
         <v>811</v>
@@ -3216,8 +3304,8 @@
       <c r="BT6" s="11">
         <v>5643</v>
       </c>
-      <c r="BU6" t="s" s="12">
-        <v>88</v>
+      <c r="BU6" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="BV6" s="11">
         <v>144</v>
@@ -3253,10 +3341,10 @@
         <v>1.41</v>
       </c>
       <c r="CG6" s="11">
-        <v>0.08500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="7" ht="18.3" customHeight="1">
+    <row r="7" spans="1:85" ht="18.25" customHeight="1">
       <c r="A7" s="9">
         <v>6.1</v>
       </c>
@@ -3454,8 +3542,8 @@
         <v>2684</v>
       </c>
       <c r="BO7" s="13"/>
-      <c r="BP7" t="s" s="12">
-        <v>85</v>
+      <c r="BP7" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ7" s="14"/>
       <c r="BR7" s="14"/>
@@ -3475,7 +3563,7 @@
         <v>1.56</v>
       </c>
       <c r="CB7" s="11">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="CC7" s="11">
         <v>4.95</v>
@@ -3490,10 +3578,10 @@
         <v>1.55</v>
       </c>
       <c r="CG7" s="11">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" ht="18.3" customHeight="1">
+    <row r="8" spans="1:85" ht="18.25" customHeight="1">
       <c r="A8" s="9">
         <v>6.2</v>
       </c>
@@ -3691,8 +3779,8 @@
         <v>2684</v>
       </c>
       <c r="BO8" s="13"/>
-      <c r="BP8" t="s" s="12">
-        <v>85</v>
+      <c r="BP8" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ8" s="14"/>
       <c r="BR8" s="14"/>
@@ -3727,10 +3815,10 @@
         <v>0.93</v>
       </c>
       <c r="CG8" s="11">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" ht="18.3" customHeight="1">
+    <row r="9" spans="1:85" ht="18.25" customHeight="1">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -3930,11 +4018,11 @@
       <c r="BO9" s="13">
         <v>44381</v>
       </c>
-      <c r="BP9" t="s" s="12">
-        <v>85</v>
-      </c>
-      <c r="BQ9" t="s" s="12">
-        <v>89</v>
+      <c r="BP9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ9" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="BR9" s="11">
         <v>766</v>
@@ -3945,8 +4033,8 @@
       <c r="BT9" s="11">
         <v>2909</v>
       </c>
-      <c r="BU9" t="s" s="12">
-        <v>90</v>
+      <c r="BU9" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="BV9" s="11">
         <v>263</v>
@@ -3958,7 +4046,7 @@
         <v>251</v>
       </c>
       <c r="BY9" s="11">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="BZ9" s="11">
         <v>7.06</v>
@@ -3982,15 +4070,15 @@
         <v>0.76</v>
       </c>
       <c r="CG9" s="11">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
     </row>
-    <row r="10" ht="18.3" customHeight="1">
+    <row r="10" spans="1:85" ht="18.25" customHeight="1">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="10">
-        <v>18.33</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="C10" s="11">
         <v>6.65</v>
@@ -4185,23 +4273,23 @@
       <c r="BO10" s="13">
         <v>44381</v>
       </c>
-      <c r="BP10" t="s" s="12">
-        <v>85</v>
-      </c>
-      <c r="BQ10" t="s" s="12">
-        <v>86</v>
+      <c r="BP10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ10" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="BR10" s="11">
         <v>894</v>
       </c>
       <c r="BS10" s="11">
-        <v>0.175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="BT10" s="11">
         <v>5379</v>
       </c>
-      <c r="BU10" t="s" s="12">
-        <v>91</v>
+      <c r="BU10" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="BV10" s="11">
         <v>166</v>
@@ -4237,10 +4325,10 @@
         <v>1.38</v>
       </c>
       <c r="CG10" s="11">
-        <v>0.079</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" ht="18.3" customHeight="1">
+    <row r="11" spans="1:85" ht="18.25" customHeight="1">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -4438,8 +4526,8 @@
         <v>4724</v>
       </c>
       <c r="BO11" s="13"/>
-      <c r="BP11" t="s" s="12">
-        <v>85</v>
+      <c r="BP11" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ11" s="14"/>
       <c r="BR11" s="14"/>
@@ -4474,10 +4562,10 @@
         <v>1.31</v>
       </c>
       <c r="CG11" s="11">
-        <v>0.08400000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="12" ht="18.3" customHeight="1">
+    <row r="12" spans="1:85" ht="18.25" customHeight="1">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -4677,11 +4765,11 @@
       <c r="BO12" s="13">
         <v>44381</v>
       </c>
-      <c r="BP12" t="s" s="12">
-        <v>85</v>
-      </c>
-      <c r="BQ12" t="s" s="12">
-        <v>89</v>
+      <c r="BP12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ12" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="BR12" s="11">
         <v>940</v>
@@ -4692,8 +4780,8 @@
       <c r="BT12" s="11">
         <v>5502</v>
       </c>
-      <c r="BU12" t="s" s="12">
-        <v>92</v>
+      <c r="BU12" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="BV12" s="11">
         <v>171</v>
@@ -4705,7 +4793,7 @@
         <v>164</v>
       </c>
       <c r="BY12" s="11">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="BZ12" s="11">
         <v>6.98</v>
@@ -4720,7 +4808,7 @@
         <v>4.04</v>
       </c>
       <c r="CD12" s="11">
-        <v>67.40000000000001</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="CE12" s="11">
         <v>0.93</v>
@@ -4729,15 +4817,15 @@
         <v>1.6</v>
       </c>
       <c r="CG12" s="11">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" ht="18.3" customHeight="1">
+    <row r="13" spans="1:85" ht="18.25" customHeight="1">
       <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" s="10">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="C13" s="11">
         <v>6.18</v>
@@ -4930,8 +5018,8 @@
         <v>4363</v>
       </c>
       <c r="BO13" s="13"/>
-      <c r="BP13" t="s" s="12">
-        <v>85</v>
+      <c r="BP13" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ13" s="14"/>
       <c r="BR13" s="14"/>
@@ -4957,7 +5045,7 @@
         <v>3.9</v>
       </c>
       <c r="CD13" s="11">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="CE13" s="11">
         <v>0.91</v>
@@ -4966,15 +5054,15 @@
         <v>1.57</v>
       </c>
       <c r="CG13" s="11">
-        <v>0.08400000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="14" ht="18.3" customHeight="1">
+    <row r="14" spans="1:85" ht="18.25" customHeight="1">
       <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="10">
-        <v>19.33</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="C14" s="11">
         <v>6.05</v>
@@ -5167,8 +5255,8 @@
         <v>4820</v>
       </c>
       <c r="BO14" s="13"/>
-      <c r="BP14" t="s" s="12">
-        <v>85</v>
+      <c r="BP14" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ14" s="14"/>
       <c r="BR14" s="14"/>
@@ -5203,10 +5291,10 @@
         <v>1.17</v>
       </c>
       <c r="CG14" s="11">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="15" ht="18.3" customHeight="1">
+    <row r="15" spans="1:85" ht="18.25" customHeight="1">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -5396,8 +5484,8 @@
       <c r="BK15" s="11">
         <v>62</v>
       </c>
-      <c r="BL15" t="s" s="12">
-        <v>93</v>
+      <c r="BL15" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="BM15" s="11">
         <v>29</v>
@@ -5406,8 +5494,8 @@
         <v>4737</v>
       </c>
       <c r="BO15" s="13"/>
-      <c r="BP15" t="s" s="12">
-        <v>85</v>
+      <c r="BP15" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ15" s="14"/>
       <c r="BR15" s="14"/>
@@ -5442,10 +5530,10 @@
         <v>0.53</v>
       </c>
       <c r="CG15" s="11">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" ht="18.3" customHeight="1">
+    <row r="16" spans="1:85" ht="18.25" customHeight="1">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -5635,8 +5723,8 @@
       <c r="BK16" s="11">
         <v>62</v>
       </c>
-      <c r="BL16" t="s" s="12">
-        <v>93</v>
+      <c r="BL16" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="BM16" s="11">
         <v>45</v>
@@ -5645,8 +5733,8 @@
         <v>4708</v>
       </c>
       <c r="BO16" s="13"/>
-      <c r="BP16" t="s" s="12">
-        <v>85</v>
+      <c r="BP16" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ16" s="14"/>
       <c r="BR16" s="14"/>
@@ -5663,7 +5751,7 @@
         <v>6.52</v>
       </c>
       <c r="CA16" s="11">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="CB16" s="11">
         <v>0.32</v>
@@ -5681,10 +5769,10 @@
         <v>0.84</v>
       </c>
       <c r="CG16" s="11">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="17" ht="18.3" customHeight="1">
+    <row r="17" spans="1:85" ht="18.25" customHeight="1">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -5882,8 +5970,8 @@
         <v>4925</v>
       </c>
       <c r="BO17" s="13"/>
-      <c r="BP17" t="s" s="12">
-        <v>85</v>
+      <c r="BP17" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ17" s="14"/>
       <c r="BR17" s="14"/>
@@ -5918,10 +6006,10 @@
         <v>1.36</v>
       </c>
       <c r="CG17" s="11">
-        <v>0.082</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="18" ht="18.3" customHeight="1">
+    <row r="18" spans="1:85" ht="18.25" customHeight="1">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -6119,8 +6207,8 @@
         <v>4966</v>
       </c>
       <c r="BO18" s="13"/>
-      <c r="BP18" t="s" s="12">
-        <v>85</v>
+      <c r="BP18" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ18" s="14"/>
       <c r="BR18" s="14"/>
@@ -6155,10 +6243,10 @@
         <v>0.84</v>
       </c>
       <c r="CG18" s="11">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" ht="18.3" customHeight="1">
+    <row r="19" spans="1:85" ht="18.25" customHeight="1">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -6356,8 +6444,8 @@
         <v>4711</v>
       </c>
       <c r="BO19" s="13"/>
-      <c r="BP19" t="s" s="12">
-        <v>85</v>
+      <c r="BP19" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ19" s="14"/>
       <c r="BR19" s="14"/>
@@ -6374,7 +6462,7 @@
         <v>6.89</v>
       </c>
       <c r="CA19" s="11">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="CB19" s="11">
         <v>0</v>
@@ -6392,10 +6480,10 @@
         <v>0.74</v>
       </c>
       <c r="CG19" s="11">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="20" ht="18.3" customHeight="1">
+    <row r="20" spans="1:85" ht="18.25" customHeight="1">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -6593,8 +6681,8 @@
         <v>4696</v>
       </c>
       <c r="BO20" s="13"/>
-      <c r="BP20" t="s" s="12">
-        <v>85</v>
+      <c r="BP20" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="BQ20" s="14"/>
       <c r="BR20" s="14"/>
@@ -6611,7 +6699,7 @@
         <v>6.84</v>
       </c>
       <c r="CA20" s="11">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="CB20" s="11">
         <v>0.09</v>
@@ -6629,10 +6717,10 @@
         <v>0.86</v>
       </c>
       <c r="CG20" s="11">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" ht="18.3" customHeight="1">
+    <row r="21" spans="1:85" ht="18.25" customHeight="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -6830,8 +6918,8 @@
         <v>2160</v>
       </c>
       <c r="BO21" s="13"/>
-      <c r="BP21" t="s" s="12">
-        <v>94</v>
+      <c r="BP21" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ21" s="14"/>
       <c r="BR21" s="14"/>
@@ -6866,10 +6954,10 @@
         <v>4.7</v>
       </c>
       <c r="CG21" s="11">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="22" ht="18.3" customHeight="1">
+    <row r="22" spans="1:85" ht="18.25" customHeight="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -7067,8 +7155,8 @@
         <v>1703</v>
       </c>
       <c r="BO22" s="13"/>
-      <c r="BP22" t="s" s="12">
-        <v>94</v>
+      <c r="BP22" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ22" s="14"/>
       <c r="BR22" s="14"/>
@@ -7100,13 +7188,13 @@
         <v>2.82</v>
       </c>
       <c r="CF22" s="11">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="CG22" s="11">
         <v>0.246</v>
       </c>
     </row>
-    <row r="23" ht="18.3" customHeight="1">
+    <row r="23" spans="1:85" ht="18.25" customHeight="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -7304,8 +7392,8 @@
         <v>2374</v>
       </c>
       <c r="BO23" s="13"/>
-      <c r="BP23" t="s" s="12">
-        <v>94</v>
+      <c r="BP23" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ23" s="14"/>
       <c r="BR23" s="14"/>
@@ -7343,7 +7431,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="24" ht="18.3" customHeight="1">
+    <row r="24" spans="1:85" ht="18.25" customHeight="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -7541,8 +7629,8 @@
         <v>2404</v>
       </c>
       <c r="BO24" s="13"/>
-      <c r="BP24" t="s" s="12">
-        <v>94</v>
+      <c r="BP24" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ24" s="14"/>
       <c r="BR24" s="14"/>
@@ -7565,7 +7653,7 @@
         <v>1.63</v>
       </c>
       <c r="CC24" s="11">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="CD24" s="11">
         <v>141.9</v>
@@ -7574,13 +7662,13 @@
         <v>2.7</v>
       </c>
       <c r="CF24" s="11">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="CG24" s="11">
-        <v>0.236</v>
+        <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="25" ht="18.3" customHeight="1">
+    <row r="25" spans="1:85" ht="18.25" customHeight="1">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -7778,8 +7866,8 @@
         <v>2278</v>
       </c>
       <c r="BO25" s="13"/>
-      <c r="BP25" t="s" s="12">
-        <v>94</v>
+      <c r="BP25" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ25" s="14"/>
       <c r="BR25" s="14"/>
@@ -7817,7 +7905,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="26" ht="18.3" customHeight="1">
+    <row r="26" spans="1:85" ht="18.25" customHeight="1">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -8015,8 +8103,8 @@
         <v>2137</v>
       </c>
       <c r="BO26" s="13"/>
-      <c r="BP26" t="s" s="12">
-        <v>94</v>
+      <c r="BP26" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ26" s="14"/>
       <c r="BR26" s="14"/>
@@ -8054,7 +8142,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="27" ht="18.3" customHeight="1">
+    <row r="27" spans="1:85" ht="18.25" customHeight="1">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -8252,8 +8340,8 @@
         <v>2333</v>
       </c>
       <c r="BO27" s="13"/>
-      <c r="BP27" t="s" s="12">
-        <v>94</v>
+      <c r="BP27" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ27" s="14"/>
       <c r="BR27" s="14"/>
@@ -8264,7 +8352,7 @@
       <c r="BW27" s="14"/>
       <c r="BX27" s="14"/>
       <c r="BY27" s="11">
-        <v>68.90000000000001</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="BZ27" s="11">
         <v>6.04</v>
@@ -8288,10 +8376,10 @@
         <v>6.4</v>
       </c>
       <c r="CG27" s="11">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="28" ht="18.3" customHeight="1">
+    <row r="28" spans="1:85" ht="18.25" customHeight="1">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -8491,23 +8579,23 @@
       <c r="BO28" s="13">
         <v>44377</v>
       </c>
-      <c r="BP28" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ28" t="s" s="12">
-        <v>89</v>
+      <c r="BP28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ28" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="BR28" s="11">
         <v>331</v>
       </c>
       <c r="BS28" s="11">
-        <v>0.194</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="BT28" s="11">
         <v>1969</v>
       </c>
-      <c r="BU28" t="s" s="12">
-        <v>95</v>
+      <c r="BU28" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="BV28" s="11">
         <v>168</v>
@@ -8531,7 +8619,7 @@
         <v>1.7</v>
       </c>
       <c r="CC28" s="11">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="CD28" s="11">
         <v>185.2</v>
@@ -8543,10 +8631,10 @@
         <v>6.73</v>
       </c>
       <c r="CG28" s="11">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="29" ht="18.3" customHeight="1">
+    <row r="29" spans="1:85" ht="18.25" customHeight="1">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -8744,8 +8832,8 @@
         <v>2499</v>
       </c>
       <c r="BO29" s="13"/>
-      <c r="BP29" t="s" s="12">
-        <v>94</v>
+      <c r="BP29" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ29" s="14"/>
       <c r="BR29" s="14"/>
@@ -8762,7 +8850,7 @@
         <v>6.53</v>
       </c>
       <c r="CA29" s="11">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="CB29" s="11">
         <v>1.87</v>
@@ -8780,10 +8868,10 @@
         <v>7.02</v>
       </c>
       <c r="CG29" s="11">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="30" ht="18.3" customHeight="1">
+    <row r="30" spans="1:85" ht="18.25" customHeight="1">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -8983,11 +9071,11 @@
       <c r="BO30" s="13">
         <v>44377</v>
       </c>
-      <c r="BP30" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ30" t="s" s="12">
-        <v>89</v>
+      <c r="BP30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ30" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="BR30" s="11">
         <v>266</v>
@@ -8998,8 +9086,8 @@
       <c r="BT30" s="11">
         <v>1517</v>
       </c>
-      <c r="BU30" t="s" s="12">
-        <v>96</v>
+      <c r="BU30" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="BV30" s="11">
         <v>175</v>
@@ -9035,10 +9123,10 @@
         <v>5.37</v>
       </c>
       <c r="CG30" s="11">
-        <v>0.263</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="31" ht="18.3" customHeight="1">
+    <row r="31" spans="1:85" ht="18.25" customHeight="1">
       <c r="A31" s="9">
         <v>31</v>
       </c>
@@ -9236,8 +9324,8 @@
         <v>2468</v>
       </c>
       <c r="BO31" s="13"/>
-      <c r="BP31" t="s" s="12">
-        <v>94</v>
+      <c r="BP31" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ31" s="14"/>
       <c r="BR31" s="14"/>
@@ -9272,10 +9360,10 @@
         <v>6.33</v>
       </c>
       <c r="CG31" s="11">
-        <v>0.304</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="32" ht="18.3" customHeight="1">
+    <row r="32" spans="1:85" ht="18.25" customHeight="1">
       <c r="A32" s="9">
         <v>32</v>
       </c>
@@ -9473,8 +9561,8 @@
         <v>3037</v>
       </c>
       <c r="BO32" s="13"/>
-      <c r="BP32" t="s" s="12">
-        <v>94</v>
+      <c r="BP32" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ32" s="14"/>
       <c r="BR32" s="14"/>
@@ -9509,10 +9597,10 @@
         <v>5.83</v>
       </c>
       <c r="CG32" s="11">
-        <v>0.292</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="33" ht="18.3" customHeight="1">
+    <row r="33" spans="1:85" ht="18.25" customHeight="1">
       <c r="A33" s="9">
         <v>33</v>
       </c>
@@ -9710,8 +9798,8 @@
         <v>2108</v>
       </c>
       <c r="BO33" s="13"/>
-      <c r="BP33" t="s" s="12">
-        <v>94</v>
+      <c r="BP33" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ33" s="14"/>
       <c r="BR33" s="14"/>
@@ -9728,10 +9816,10 @@
         <v>6.28</v>
       </c>
       <c r="CA33" s="11">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="CB33" s="11">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CC33" s="11">
         <v>5.74</v>
@@ -9743,13 +9831,13 @@
         <v>2.75</v>
       </c>
       <c r="CF33" s="11">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="CG33" s="11">
-        <v>0.236</v>
+        <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="34" ht="18.3" customHeight="1">
+    <row r="34" spans="1:85" ht="18.25" customHeight="1">
       <c r="A34" s="9">
         <v>34</v>
       </c>
@@ -9949,11 +10037,11 @@
       <c r="BO34" s="13">
         <v>44377</v>
       </c>
-      <c r="BP34" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ34" t="s" s="12">
-        <v>97</v>
+      <c r="BP34" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ34" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="BR34" s="11">
         <v>522</v>
@@ -9964,8 +10052,8 @@
       <c r="BT34" s="11">
         <v>2438</v>
       </c>
-      <c r="BU34" t="s" s="12">
-        <v>98</v>
+      <c r="BU34" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="BV34" s="11">
         <v>214</v>
@@ -9986,7 +10074,7 @@
         <v>2.57</v>
       </c>
       <c r="CB34" s="11">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CC34" s="11">
         <v>4.74</v>
@@ -10001,10 +10089,10 @@
         <v>4.82</v>
       </c>
       <c r="CG34" s="11">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="35" ht="18.3" customHeight="1">
+    <row r="35" spans="1:85" ht="18.25" customHeight="1">
       <c r="A35" s="9">
         <v>35</v>
       </c>
@@ -10202,8 +10290,8 @@
         <v>2367</v>
       </c>
       <c r="BO35" s="13"/>
-      <c r="BP35" t="s" s="12">
-        <v>94</v>
+      <c r="BP35" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ35" s="14"/>
       <c r="BR35" s="14"/>
@@ -10238,10 +10326,10 @@
         <v>6.24</v>
       </c>
       <c r="CG35" s="11">
-        <v>0.287</v>
+        <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="36" ht="18.3" customHeight="1">
+    <row r="36" spans="1:85" ht="18.25" customHeight="1">
       <c r="A36" s="9">
         <v>38</v>
       </c>
@@ -10431,8 +10519,8 @@
       <c r="BK36" s="11">
         <v>85</v>
       </c>
-      <c r="BL36" t="s" s="12">
-        <v>93</v>
+      <c r="BL36" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="BM36" s="11">
         <v>16</v>
@@ -10441,8 +10529,8 @@
         <v>3073</v>
       </c>
       <c r="BO36" s="13"/>
-      <c r="BP36" t="s" s="12">
-        <v>94</v>
+      <c r="BP36" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ36" s="14"/>
       <c r="BR36" s="14"/>
@@ -10477,10 +10565,10 @@
         <v>5.31</v>
       </c>
       <c r="CG36" s="11">
-        <v>0.233</v>
+        <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="37" ht="18.3" customHeight="1">
+    <row r="37" spans="1:85" ht="18.25" customHeight="1">
       <c r="A37" s="9">
         <v>39</v>
       </c>
@@ -10678,8 +10766,8 @@
         <v>3351</v>
       </c>
       <c r="BO37" s="13"/>
-      <c r="BP37" t="s" s="12">
-        <v>94</v>
+      <c r="BP37" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ37" s="14"/>
       <c r="BR37" s="14"/>
@@ -10696,7 +10784,7 @@
         <v>6.67</v>
       </c>
       <c r="CA37" s="11">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="CB37" s="11">
         <v>1.06</v>
@@ -10708,16 +10796,16 @@
         <v>206.6</v>
       </c>
       <c r="CE37" s="11">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="CF37" s="11">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="CG37" s="11">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="38" ht="18.3" customHeight="1">
+    <row r="38" spans="1:85" ht="18.25" customHeight="1">
       <c r="A38" s="9">
         <v>40</v>
       </c>
@@ -10915,8 +11003,8 @@
         <v>2192</v>
       </c>
       <c r="BO38" s="13"/>
-      <c r="BP38" t="s" s="12">
-        <v>94</v>
+      <c r="BP38" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ38" s="14"/>
       <c r="BR38" s="14"/>
@@ -10951,10 +11039,10 @@
         <v>5.19</v>
       </c>
       <c r="CG38" s="11">
-        <v>0.273</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="39" ht="18.3" customHeight="1">
+    <row r="39" spans="1:85" ht="18.25" customHeight="1">
       <c r="A39" s="9">
         <v>41</v>
       </c>
@@ -11154,23 +11242,23 @@
       <c r="BO39" s="13">
         <v>44384</v>
       </c>
-      <c r="BP39" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ39" t="s" s="12">
-        <v>99</v>
+      <c r="BP39" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ39" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="BR39" s="11">
         <v>125</v>
       </c>
       <c r="BS39" s="11">
-        <v>0.204</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="BT39" s="11">
         <v>3563</v>
       </c>
-      <c r="BU39" t="s" s="12">
-        <v>100</v>
+      <c r="BU39" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="BV39" s="11">
         <v>35</v>
@@ -11182,7 +11270,7 @@
         <v>34</v>
       </c>
       <c r="BY39" s="11">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="BZ39" s="11">
         <v>6.45</v>
@@ -11200,7 +11288,7 @@
         <v>92</v>
       </c>
       <c r="CE39" s="11">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="CF39" s="11">
         <v>8.34</v>
@@ -11209,7 +11297,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="40" ht="18.3" customHeight="1">
+    <row r="40" spans="1:85" ht="18.25" customHeight="1">
       <c r="A40" s="9">
         <v>42</v>
       </c>
@@ -11407,8 +11495,8 @@
         <v>2910</v>
       </c>
       <c r="BO40" s="13"/>
-      <c r="BP40" t="s" s="12">
-        <v>94</v>
+      <c r="BP40" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ40" s="14"/>
       <c r="BR40" s="14"/>
@@ -11419,7 +11507,7 @@
       <c r="BW40" s="14"/>
       <c r="BX40" s="14"/>
       <c r="BY40" s="11">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="BZ40" s="11">
         <v>6.85</v>
@@ -11437,16 +11525,16 @@
         <v>107.5</v>
       </c>
       <c r="CE40" s="11">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="CF40" s="11">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="CG40" s="11">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="41" ht="18.3" customHeight="1">
+    <row r="41" spans="1:85" ht="18.25" customHeight="1">
       <c r="A41" s="9">
         <v>43</v>
       </c>
@@ -11636,8 +11724,8 @@
       <c r="BK41" s="11">
         <v>77</v>
       </c>
-      <c r="BL41" t="s" s="12">
-        <v>93</v>
+      <c r="BL41" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="BM41" s="11">
         <v>24</v>
@@ -11646,8 +11734,8 @@
         <v>3030</v>
       </c>
       <c r="BO41" s="13"/>
-      <c r="BP41" t="s" s="12">
-        <v>94</v>
+      <c r="BP41" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ41" s="14"/>
       <c r="BR41" s="14"/>
@@ -11676,16 +11764,16 @@
         <v>51.2</v>
       </c>
       <c r="CE41" s="11">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="CF41" s="11">
         <v>7.05</v>
       </c>
       <c r="CG41" s="11">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="42" ht="18.3" customHeight="1">
+    <row r="42" spans="1:85" ht="18.25" customHeight="1">
       <c r="A42" s="9">
         <v>44</v>
       </c>
@@ -11875,8 +11963,8 @@
       <c r="BK42" s="11">
         <v>73</v>
       </c>
-      <c r="BL42" t="s" s="12">
-        <v>93</v>
+      <c r="BL42" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="BM42" s="11">
         <v>29</v>
@@ -11885,8 +11973,8 @@
         <v>2415</v>
       </c>
       <c r="BO42" s="13"/>
-      <c r="BP42" t="s" s="12">
-        <v>94</v>
+      <c r="BP42" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ42" s="14"/>
       <c r="BR42" s="14"/>
@@ -11903,10 +11991,10 @@
         <v>6.52</v>
       </c>
       <c r="CA42" s="11">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="CB42" s="11">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="CC42" s="11">
         <v>5.33</v>
@@ -11921,10 +12009,10 @@
         <v>6.21</v>
       </c>
       <c r="CG42" s="11">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="43" ht="18.3" customHeight="1">
+    <row r="43" spans="1:85" ht="18.25" customHeight="1">
       <c r="A43" s="9">
         <v>45</v>
       </c>
@@ -12122,8 +12210,8 @@
         <v>2335</v>
       </c>
       <c r="BO43" s="13"/>
-      <c r="BP43" t="s" s="12">
-        <v>94</v>
+      <c r="BP43" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ43" s="14"/>
       <c r="BR43" s="14"/>
@@ -12149,19 +12237,19 @@
         <v>5.42</v>
       </c>
       <c r="CD43" s="11">
-        <v>73.59999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="CE43" s="11">
         <v>5.83</v>
       </c>
       <c r="CF43" s="11">
-        <v>10.03</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="CG43" s="11">
         <v>0.379</v>
       </c>
     </row>
-    <row r="44" ht="18.3" customHeight="1">
+    <row r="44" spans="1:85" ht="18.25" customHeight="1">
       <c r="A44" s="9">
         <v>46</v>
       </c>
@@ -12361,23 +12449,23 @@
       <c r="BO44" s="13">
         <v>44384</v>
       </c>
-      <c r="BP44" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ44" t="s" s="12">
-        <v>99</v>
+      <c r="BP44" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ44" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="BR44" s="11">
         <v>410</v>
       </c>
       <c r="BS44" s="11">
-        <v>0.179</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="BT44" s="11">
         <v>3976</v>
       </c>
-      <c r="BU44" t="s" s="12">
-        <v>101</v>
+      <c r="BU44" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="BV44" s="11">
         <v>103</v>
@@ -12401,7 +12489,7 @@
         <v>1.26</v>
       </c>
       <c r="CC44" s="11">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="CD44" s="11">
         <v>106.5</v>
@@ -12413,10 +12501,10 @@
         <v>9.92</v>
       </c>
       <c r="CG44" s="11">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="45" ht="18.3" customHeight="1">
+    <row r="45" spans="1:85" ht="18.25" customHeight="1">
       <c r="A45" s="9">
         <v>47</v>
       </c>
@@ -12606,8 +12694,8 @@
       <c r="BK45" s="11">
         <v>63</v>
       </c>
-      <c r="BL45" t="s" s="12">
-        <v>93</v>
+      <c r="BL45" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="BM45" s="11">
         <v>47</v>
@@ -12616,8 +12704,8 @@
         <v>2784</v>
       </c>
       <c r="BO45" s="13"/>
-      <c r="BP45" t="s" s="12">
-        <v>94</v>
+      <c r="BP45" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ45" s="14"/>
       <c r="BR45" s="14"/>
@@ -12637,7 +12725,7 @@
         <v>1.65</v>
       </c>
       <c r="CB45" s="11">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="CC45" s="11">
         <v>5.67</v>
@@ -12652,10 +12740,10 @@
         <v>5.4</v>
       </c>
       <c r="CG45" s="11">
-        <v>0.273</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="46" ht="18.3" customHeight="1">
+    <row r="46" spans="1:85" ht="18.25" customHeight="1">
       <c r="A46" s="9">
         <v>48</v>
       </c>
@@ -12845,8 +12933,8 @@
       <c r="BK46" s="11">
         <v>62</v>
       </c>
-      <c r="BL46" t="s" s="12">
-        <v>93</v>
+      <c r="BL46" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="BM46" s="11">
         <v>50</v>
@@ -12855,8 +12943,8 @@
         <v>2593</v>
       </c>
       <c r="BO46" s="13"/>
-      <c r="BP46" t="s" s="12">
-        <v>94</v>
+      <c r="BP46" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ46" s="14"/>
       <c r="BR46" s="14"/>
@@ -12891,10 +12979,10 @@
         <v>10.37</v>
       </c>
       <c r="CG46" s="11">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="47" ht="18.3" customHeight="1">
+    <row r="47" spans="1:85" ht="18.25" customHeight="1">
       <c r="A47" s="9">
         <v>49</v>
       </c>
@@ -13084,8 +13172,8 @@
       <c r="BK47" s="11">
         <v>197</v>
       </c>
-      <c r="BL47" t="s" s="12">
-        <v>93</v>
+      <c r="BL47" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="BM47" s="11">
         <v>46</v>
@@ -13094,8 +13182,8 @@
         <v>2949</v>
       </c>
       <c r="BO47" s="13"/>
-      <c r="BP47" t="s" s="12">
-        <v>94</v>
+      <c r="BP47" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ47" s="14"/>
       <c r="BR47" s="14"/>
@@ -13106,7 +13194,7 @@
       <c r="BW47" s="14"/>
       <c r="BX47" s="14"/>
       <c r="BY47" s="11">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="BZ47" s="11">
         <v>6.12</v>
@@ -13130,10 +13218,10 @@
         <v>9.25</v>
       </c>
       <c r="CG47" s="11">
-        <v>0.361</v>
+        <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="48" ht="18.3" customHeight="1">
+    <row r="48" spans="1:85" ht="18.25" customHeight="1">
       <c r="A48" s="9">
         <v>50</v>
       </c>
@@ -13323,8 +13411,8 @@
       <c r="BK48" s="11">
         <v>75</v>
       </c>
-      <c r="BL48" t="s" s="12">
-        <v>93</v>
+      <c r="BL48" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="BM48" s="11">
         <v>34</v>
@@ -13333,8 +13421,8 @@
         <v>3241</v>
       </c>
       <c r="BO48" s="13"/>
-      <c r="BP48" t="s" s="12">
-        <v>94</v>
+      <c r="BP48" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ48" s="14"/>
       <c r="BR48" s="14"/>
@@ -13354,7 +13442,7 @@
         <v>1.66</v>
       </c>
       <c r="CB48" s="11">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="CC48" s="11">
         <v>4.43</v>
@@ -13369,10 +13457,10 @@
         <v>5.19</v>
       </c>
       <c r="CG48" s="11">
-        <v>0.274</v>
+        <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="49" ht="18.3" customHeight="1">
+    <row r="49" spans="1:85" ht="18.25" customHeight="1">
       <c r="A49" s="9">
         <v>51</v>
       </c>
@@ -13572,11 +13660,11 @@
       <c r="BO49" s="13">
         <v>44384</v>
       </c>
-      <c r="BP49" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ49" t="s" s="12">
-        <v>99</v>
+      <c r="BP49" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ49" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="BR49" s="11">
         <v>72</v>
@@ -13587,8 +13675,8 @@
       <c r="BT49" s="11">
         <v>3902</v>
       </c>
-      <c r="BU49" t="s" s="12">
-        <v>102</v>
+      <c r="BU49" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="BV49" s="11">
         <v>18</v>
@@ -13615,7 +13703,7 @@
         <v>4.91</v>
       </c>
       <c r="CD49" s="11">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="CE49" s="11">
         <v>4.3</v>
@@ -13624,15 +13712,15 @@
         <v>7.4</v>
       </c>
       <c r="CG49" s="11">
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="50" ht="18.3" customHeight="1">
+    <row r="50" spans="1:85" ht="18.25" customHeight="1">
       <c r="A50" s="9">
         <v>52</v>
       </c>
       <c r="B50" s="10">
-        <v>19.67</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="C50" s="11">
         <v>6.09</v>
@@ -13825,8 +13913,8 @@
         <v>2147</v>
       </c>
       <c r="BO50" s="13"/>
-      <c r="BP50" t="s" s="12">
-        <v>94</v>
+      <c r="BP50" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ50" s="14"/>
       <c r="BR50" s="14"/>
@@ -13852,19 +13940,19 @@
         <v>7.16</v>
       </c>
       <c r="CD50" s="11">
-        <v>95.09999999999999</v>
+        <v>95.1</v>
       </c>
       <c r="CE50" s="11">
         <v>5.74</v>
       </c>
       <c r="CF50" s="11">
-        <v>9.869999999999999</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="CG50" s="11">
         <v>0.371</v>
       </c>
     </row>
-    <row r="51" ht="18.3" customHeight="1">
+    <row r="51" spans="1:85" ht="18.25" customHeight="1">
       <c r="A51" s="9">
         <v>53</v>
       </c>
@@ -14062,8 +14150,8 @@
         <v>2418</v>
       </c>
       <c r="BO51" s="13"/>
-      <c r="BP51" t="s" s="12">
-        <v>94</v>
+      <c r="BP51" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ51" s="14"/>
       <c r="BR51" s="14"/>
@@ -14086,22 +14174,22 @@
         <v>0.8</v>
       </c>
       <c r="CC51" s="11">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="CD51" s="11">
-        <v>74.59999999999999</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="CE51" s="11">
         <v>4.78</v>
       </c>
       <c r="CF51" s="11">
-        <v>8.220000000000001</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="CG51" s="11">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="52" ht="18.3" customHeight="1">
+    <row r="52" spans="1:85" ht="18.25" customHeight="1">
       <c r="A52" s="9">
         <v>54</v>
       </c>
@@ -14301,23 +14389,23 @@
       <c r="BO52" s="13">
         <v>44384</v>
       </c>
-      <c r="BP52" t="s" s="12">
+      <c r="BP52" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ52" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="BQ52" t="s" s="12">
-        <v>103</v>
       </c>
       <c r="BR52" s="11">
         <v>400</v>
       </c>
       <c r="BS52" s="11">
-        <v>0.179</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="BT52" s="11">
         <v>3560</v>
       </c>
-      <c r="BU52" t="s" s="12">
-        <v>104</v>
+      <c r="BU52" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="BV52" s="11">
         <v>112</v>
@@ -14353,10 +14441,10 @@
         <v>11.03</v>
       </c>
       <c r="CG52" s="11">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="53" ht="18.3" customHeight="1">
+    <row r="53" spans="1:85" ht="18.25" customHeight="1">
       <c r="A53" s="9">
         <v>55</v>
       </c>
@@ -14546,8 +14634,8 @@
       <c r="BK53" s="11">
         <v>66</v>
       </c>
-      <c r="BL53" t="s" s="12">
-        <v>93</v>
+      <c r="BL53" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="BM53" s="11">
         <v>27</v>
@@ -14558,23 +14646,23 @@
       <c r="BO53" s="13">
         <v>44384</v>
       </c>
-      <c r="BP53" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ53" t="s" s="12">
-        <v>105</v>
+      <c r="BP53" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ53" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="BR53" s="11">
         <v>68</v>
       </c>
       <c r="BS53" s="11">
-        <v>0.181</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="BT53" s="11">
         <v>1810</v>
       </c>
-      <c r="BU53" t="s" s="12">
-        <v>106</v>
+      <c r="BU53" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="BV53" s="11">
         <v>38</v>
@@ -14610,10 +14698,10 @@
         <v>4.63</v>
       </c>
       <c r="CG53" s="11">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="54" ht="18.3" customHeight="1">
+    <row r="54" spans="1:85" ht="18.25" customHeight="1">
       <c r="A54" s="9">
         <v>56</v>
       </c>
@@ -14811,8 +14899,8 @@
         <v>2603</v>
       </c>
       <c r="BO54" s="13"/>
-      <c r="BP54" t="s" s="12">
-        <v>94</v>
+      <c r="BP54" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ54" s="14"/>
       <c r="BR54" s="14"/>
@@ -14847,10 +14935,10 @@
         <v>4.83</v>
       </c>
       <c r="CG54" s="11">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="55" ht="18.3" customHeight="1">
+    <row r="55" spans="1:85" ht="18.25" customHeight="1">
       <c r="A55" s="9">
         <v>57</v>
       </c>
@@ -15050,23 +15138,23 @@
       <c r="BO55" s="13">
         <v>44377</v>
       </c>
-      <c r="BP55" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ55" t="s" s="12">
-        <v>97</v>
+      <c r="BP55" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ55" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="BR55" s="11">
         <v>147</v>
       </c>
       <c r="BS55" s="11">
-        <v>0.197</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="BT55" s="11">
         <v>1587</v>
       </c>
-      <c r="BU55" t="s" s="12">
-        <v>107</v>
+      <c r="BU55" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="BV55" s="11">
         <v>93</v>
@@ -15096,16 +15184,16 @@
         <v>97.2</v>
       </c>
       <c r="CE55" s="11">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="CF55" s="11">
         <v>4.21</v>
       </c>
       <c r="CG55" s="11">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="56" ht="18.3" customHeight="1">
+    <row r="56" spans="1:85" ht="18.25" customHeight="1">
       <c r="A56" s="9">
         <v>58</v>
       </c>
@@ -15305,23 +15393,23 @@
       <c r="BO56" s="13">
         <v>44377</v>
       </c>
-      <c r="BP56" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ56" t="s" s="12">
-        <v>97</v>
+      <c r="BP56" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ56" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="BR56" s="11">
         <v>256</v>
       </c>
       <c r="BS56" s="11">
-        <v>0.199</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="BT56" s="11">
         <v>1722</v>
       </c>
-      <c r="BU56" t="s" s="12">
-        <v>108</v>
+      <c r="BU56" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="BV56" s="11">
         <v>149</v>
@@ -15357,10 +15445,10 @@
         <v>6.17</v>
       </c>
       <c r="CG56" s="11">
-        <v>0.276</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="57" ht="18.3" customHeight="1">
+    <row r="57" spans="1:85" ht="18.25" customHeight="1">
       <c r="A57" s="9">
         <v>59</v>
       </c>
@@ -15558,8 +15646,8 @@
         <v>1762</v>
       </c>
       <c r="BO57" s="13"/>
-      <c r="BP57" t="s" s="12">
-        <v>94</v>
+      <c r="BP57" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ57" s="14"/>
       <c r="BR57" s="14"/>
@@ -15594,10 +15682,10 @@
         <v>10.56</v>
       </c>
       <c r="CG57" s="11">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="58" ht="18.3" customHeight="1">
+    <row r="58" spans="1:85" ht="18.25" customHeight="1">
       <c r="A58" s="9">
         <v>60</v>
       </c>
@@ -15797,23 +15885,23 @@
       <c r="BO58" s="13">
         <v>44377</v>
       </c>
-      <c r="BP58" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ58" t="s" s="12">
-        <v>97</v>
+      <c r="BP58" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ58" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="BR58" s="11">
         <v>284</v>
       </c>
       <c r="BS58" s="11">
-        <v>0.177</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="BT58" s="11">
         <v>3535</v>
       </c>
-      <c r="BU58" t="s" s="12">
-        <v>109</v>
+      <c r="BU58" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="BV58" s="11">
         <v>80</v>
@@ -15849,10 +15937,10 @@
         <v>6.38</v>
       </c>
       <c r="CG58" s="11">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="59" ht="18.3" customHeight="1">
+    <row r="59" spans="1:85" ht="18.25" customHeight="1">
       <c r="A59" s="9">
         <v>61</v>
       </c>
@@ -16050,8 +16138,8 @@
         <v>2367</v>
       </c>
       <c r="BO59" s="13"/>
-      <c r="BP59" t="s" s="12">
-        <v>94</v>
+      <c r="BP59" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ59" s="14"/>
       <c r="BR59" s="14"/>
@@ -16086,10 +16174,10 @@
         <v>6.6</v>
       </c>
       <c r="CG59" s="11">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="60" ht="18.3" customHeight="1">
+    <row r="60" spans="1:85" ht="18.25" customHeight="1">
       <c r="A60" s="9">
         <v>62</v>
       </c>
@@ -16289,11 +16377,11 @@
       <c r="BO60" s="13">
         <v>44377</v>
       </c>
-      <c r="BP60" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ60" t="s" s="12">
-        <v>97</v>
+      <c r="BP60" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ60" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="BR60" s="11">
         <v>256</v>
@@ -16304,8 +16392,8 @@
       <c r="BT60" s="11">
         <v>1511</v>
       </c>
-      <c r="BU60" t="s" s="12">
-        <v>110</v>
+      <c r="BU60" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="BV60" s="11">
         <v>169</v>
@@ -16341,10 +16429,10 @@
         <v>8.1</v>
       </c>
       <c r="CG60" s="11">
-        <v>0.338</v>
+        <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="61" ht="18.3" customHeight="1">
+    <row r="61" spans="1:85" ht="18.25" customHeight="1">
       <c r="A61" s="9">
         <v>63</v>
       </c>
@@ -16534,8 +16622,8 @@
       <c r="BK61" s="11">
         <v>2340</v>
       </c>
-      <c r="BL61" t="s" s="12">
-        <v>111</v>
+      <c r="BL61" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="BM61" s="11">
         <v>40</v>
@@ -16546,23 +16634,23 @@
       <c r="BO61" s="13">
         <v>44386</v>
       </c>
-      <c r="BP61" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ61" t="s" s="12">
-        <v>99</v>
+      <c r="BP61" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ61" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="BR61" s="11">
         <v>64</v>
       </c>
       <c r="BS61" s="11">
-        <v>0.194</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="BT61" s="11">
         <v>4141</v>
       </c>
-      <c r="BU61" t="s" s="12">
-        <v>112</v>
+      <c r="BU61" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="BV61" s="11">
         <v>15</v>
@@ -16583,13 +16671,13 @@
         <v>2.11</v>
       </c>
       <c r="CB61" s="11">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CC61" s="11">
         <v>9.32</v>
       </c>
       <c r="CD61" s="11">
-        <v>142.2</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="CE61" s="11">
         <v>4.47</v>
@@ -16598,15 +16686,15 @@
         <v>7.69</v>
       </c>
       <c r="CG61" s="11">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="62" ht="18.3" customHeight="1">
+    <row r="62" spans="1:85" ht="18.25" customHeight="1">
       <c r="A62" s="9">
         <v>64</v>
       </c>
       <c r="B62" s="10">
-        <v>134.67</v>
+        <v>134.66999999999999</v>
       </c>
       <c r="C62" s="11">
         <v>5.44</v>
@@ -16799,8 +16887,8 @@
         <v>2312</v>
       </c>
       <c r="BO62" s="13"/>
-      <c r="BP62" t="s" s="12">
-        <v>94</v>
+      <c r="BP62" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ62" s="14"/>
       <c r="BR62" s="14"/>
@@ -16838,7 +16926,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="63" ht="18.3" customHeight="1">
+    <row r="63" spans="1:85" ht="18.25" customHeight="1">
       <c r="A63" s="9">
         <v>65</v>
       </c>
@@ -17036,8 +17124,8 @@
         <v>3080</v>
       </c>
       <c r="BO63" s="13"/>
-      <c r="BP63" t="s" s="12">
-        <v>94</v>
+      <c r="BP63" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ63" s="14"/>
       <c r="BR63" s="14"/>
@@ -17072,10 +17160,10 @@
         <v>6.36</v>
       </c>
       <c r="CG63" s="11">
-        <v>0.298</v>
+        <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="64" ht="18.3" customHeight="1">
+    <row r="64" spans="1:85" ht="18.25" customHeight="1">
       <c r="A64" s="9">
         <v>67</v>
       </c>
@@ -17273,8 +17361,8 @@
         <v>2528</v>
       </c>
       <c r="BO64" s="13"/>
-      <c r="BP64" t="s" s="12">
-        <v>94</v>
+      <c r="BP64" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ64" s="14"/>
       <c r="BR64" s="14"/>
@@ -17294,7 +17382,7 @@
         <v>1.41</v>
       </c>
       <c r="CB64" s="11">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="CC64" s="11">
         <v>6.18</v>
@@ -17312,7 +17400,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="65" ht="18.3" customHeight="1">
+    <row r="65" spans="1:85" ht="18.25" customHeight="1">
       <c r="A65" s="9">
         <v>68</v>
       </c>
@@ -17512,11 +17600,11 @@
       <c r="BO65" s="13">
         <v>44377</v>
       </c>
-      <c r="BP65" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ65" t="s" s="12">
-        <v>97</v>
+      <c r="BP65" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ65" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="BR65" s="11">
         <v>201</v>
@@ -17527,8 +17615,8 @@
       <c r="BT65" s="11">
         <v>2076</v>
       </c>
-      <c r="BU65" t="s" s="12">
-        <v>113</v>
+      <c r="BU65" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="BV65" s="11">
         <v>97</v>
@@ -17549,7 +17637,7 @@
         <v>1.69</v>
       </c>
       <c r="CB65" s="11">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="CC65" s="11">
         <v>11.36</v>
@@ -17564,10 +17652,10 @@
         <v>6.21</v>
       </c>
       <c r="CG65" s="11">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="66" ht="18.3" customHeight="1">
+    <row r="66" spans="1:85" ht="18.25" customHeight="1">
       <c r="A66" s="9">
         <v>69</v>
       </c>
@@ -17765,8 +17853,8 @@
         <v>3257</v>
       </c>
       <c r="BO66" s="13"/>
-      <c r="BP66" t="s" s="12">
-        <v>94</v>
+      <c r="BP66" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ66" s="14"/>
       <c r="BR66" s="14"/>
@@ -17801,10 +17889,10 @@
         <v>5.93</v>
       </c>
       <c r="CG66" s="11">
-        <v>0.272</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="67" ht="18.3" customHeight="1">
+    <row r="67" spans="1:85" ht="18.25" customHeight="1">
       <c r="A67" s="9">
         <v>70</v>
       </c>
@@ -18002,8 +18090,8 @@
         <v>2855</v>
       </c>
       <c r="BO67" s="13"/>
-      <c r="BP67" t="s" s="12">
-        <v>94</v>
+      <c r="BP67" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ67" s="14"/>
       <c r="BR67" s="14"/>
@@ -18038,10 +18126,10 @@
         <v>5.38</v>
       </c>
       <c r="CG67" s="11">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="68" ht="18.3" customHeight="1">
+    <row r="68" spans="1:85" ht="18.25" customHeight="1">
       <c r="A68" s="9">
         <v>71</v>
       </c>
@@ -18239,8 +18327,8 @@
         <v>2525</v>
       </c>
       <c r="BO68" s="13"/>
-      <c r="BP68" t="s" s="12">
-        <v>94</v>
+      <c r="BP68" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ68" s="14"/>
       <c r="BR68" s="14"/>
@@ -18275,10 +18363,10 @@
         <v>5.45</v>
       </c>
       <c r="CG68" s="11">
-        <v>0.265</v>
+        <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="69" ht="18.3" customHeight="1">
+    <row r="69" spans="1:85" ht="18.25" customHeight="1">
       <c r="A69" s="9">
         <v>73</v>
       </c>
@@ -18476,8 +18564,8 @@
         <v>2050</v>
       </c>
       <c r="BO69" s="13"/>
-      <c r="BP69" t="s" s="12">
-        <v>94</v>
+      <c r="BP69" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ69" s="14"/>
       <c r="BR69" s="14"/>
@@ -18497,10 +18585,10 @@
         <v>1.65</v>
       </c>
       <c r="CB69" s="11">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="CC69" s="11">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="CD69" s="11">
         <v>177.8</v>
@@ -18512,10 +18600,10 @@
         <v>5.3</v>
       </c>
       <c r="CG69" s="11">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="70" ht="18.3" customHeight="1">
+    <row r="70" spans="1:85" ht="18.25" customHeight="1">
       <c r="A70" s="9">
         <v>74</v>
       </c>
@@ -18713,8 +18801,8 @@
         <v>2530</v>
       </c>
       <c r="BO70" s="13"/>
-      <c r="BP70" t="s" s="12">
-        <v>94</v>
+      <c r="BP70" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ70" s="14"/>
       <c r="BR70" s="14"/>
@@ -18749,10 +18837,10 @@
         <v>6.52</v>
       </c>
       <c r="CG70" s="11">
-        <v>0.305</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="71" ht="18.3" customHeight="1">
+    <row r="71" spans="1:85" ht="18.25" customHeight="1">
       <c r="A71" s="9">
         <v>75</v>
       </c>
@@ -18952,11 +19040,11 @@
       <c r="BO71" s="13">
         <v>44377</v>
       </c>
-      <c r="BP71" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ71" t="s" s="12">
-        <v>97</v>
+      <c r="BP71" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ71" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="BR71" s="11">
         <v>641</v>
@@ -18967,8 +19055,8 @@
       <c r="BT71" s="11">
         <v>4328</v>
       </c>
-      <c r="BU71" t="s" s="12">
-        <v>114</v>
+      <c r="BU71" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="BV71" s="11">
         <v>148</v>
@@ -18989,10 +19077,10 @@
         <v>1.79</v>
       </c>
       <c r="CB71" s="11">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="CC71" s="11">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="CD71" s="11">
         <v>200</v>
@@ -19007,7 +19095,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="72" ht="18.3" customHeight="1">
+    <row r="72" spans="1:85" ht="18.25" customHeight="1">
       <c r="A72" s="9">
         <v>76</v>
       </c>
@@ -19205,8 +19293,8 @@
         <v>2402</v>
       </c>
       <c r="BO72" s="13"/>
-      <c r="BP72" t="s" s="12">
-        <v>94</v>
+      <c r="BP72" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ72" s="14"/>
       <c r="BR72" s="14"/>
@@ -19232,7 +19320,7 @@
         <v>8.18</v>
       </c>
       <c r="CD72" s="11">
-        <v>146.3</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="CE72" s="11">
         <v>3.94</v>
@@ -19244,7 +19332,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="73" ht="18.3" customHeight="1">
+    <row r="73" spans="1:85" ht="18.25" customHeight="1">
       <c r="A73" s="9">
         <v>78</v>
       </c>
@@ -19442,8 +19530,8 @@
         <v>2600</v>
       </c>
       <c r="BO73" s="13"/>
-      <c r="BP73" t="s" s="12">
-        <v>115</v>
+      <c r="BP73" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="BQ73" s="14"/>
       <c r="BR73" s="14"/>
@@ -19478,10 +19566,10 @@
         <v>4.42</v>
       </c>
       <c r="CG73" s="11">
-        <v>0.209</v>
+        <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="74" ht="18.3" customHeight="1">
+    <row r="74" spans="1:85" ht="18.25" customHeight="1">
       <c r="A74" s="9">
         <v>79</v>
       </c>
@@ -19681,11 +19769,11 @@
       <c r="BO74" s="13">
         <v>44376</v>
       </c>
-      <c r="BP74" t="s" s="12">
-        <v>115</v>
-      </c>
-      <c r="BQ74" t="s" s="12">
-        <v>89</v>
+      <c r="BP74" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ74" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="BR74" s="11">
         <v>497</v>
@@ -19696,8 +19784,8 @@
       <c r="BT74" s="11">
         <v>3039</v>
       </c>
-      <c r="BU74" t="s" s="12">
-        <v>116</v>
+      <c r="BU74" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="BV74" s="11">
         <v>164</v>
@@ -19727,7 +19815,7 @@
         <v>190.2</v>
       </c>
       <c r="CE74" s="11">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CF74" s="11">
         <v>3.78</v>
@@ -19736,7 +19824,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="75" ht="18.3" customHeight="1">
+    <row r="75" spans="1:85" ht="18.25" customHeight="1">
       <c r="A75" s="9">
         <v>80</v>
       </c>
@@ -19934,8 +20022,8 @@
         <v>2684</v>
       </c>
       <c r="BO75" s="13"/>
-      <c r="BP75" t="s" s="12">
-        <v>115</v>
+      <c r="BP75" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="BQ75" s="14"/>
       <c r="BR75" s="14"/>
@@ -19970,10 +20058,10 @@
         <v>3.44</v>
       </c>
       <c r="CG75" s="11">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="76" ht="18.3" customHeight="1">
+    <row r="76" spans="1:85" ht="18.25" customHeight="1">
       <c r="A76" s="9">
         <v>81</v>
       </c>
@@ -20173,11 +20261,11 @@
       <c r="BO76" s="13">
         <v>44376</v>
       </c>
-      <c r="BP76" t="s" s="12">
-        <v>115</v>
-      </c>
-      <c r="BQ76" t="s" s="12">
-        <v>89</v>
+      <c r="BP76" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ76" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="BR76" s="11">
         <v>295</v>
@@ -20188,8 +20276,8 @@
       <c r="BT76" s="11">
         <v>1670</v>
       </c>
-      <c r="BU76" t="s" s="12">
-        <v>117</v>
+      <c r="BU76" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="BV76" s="11">
         <v>177</v>
@@ -20216,7 +20304,7 @@
         <v>12.6</v>
       </c>
       <c r="CD76" s="11">
-        <v>129.2</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="CE76" s="11">
         <v>2.54</v>
@@ -20228,7 +20316,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="77" ht="18.3" customHeight="1">
+    <row r="77" spans="1:85" ht="18.25" customHeight="1">
       <c r="A77" s="9">
         <v>82</v>
       </c>
@@ -20426,8 +20514,8 @@
         <v>2148</v>
       </c>
       <c r="BO77" s="13"/>
-      <c r="BP77" t="s" s="12">
-        <v>115</v>
+      <c r="BP77" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="BQ77" s="14"/>
       <c r="BR77" s="14"/>
@@ -20447,7 +20535,7 @@
         <v>1.74</v>
       </c>
       <c r="CB77" s="11">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="CC77" s="11">
         <v>5.43</v>
@@ -20465,7 +20553,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="78" ht="18.3" customHeight="1">
+    <row r="78" spans="1:85" ht="18.25" customHeight="1">
       <c r="A78" s="9">
         <v>83</v>
       </c>
@@ -20663,8 +20751,8 @@
         <v>2443</v>
       </c>
       <c r="BO78" s="13"/>
-      <c r="BP78" t="s" s="12">
-        <v>115</v>
+      <c r="BP78" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="BQ78" s="14"/>
       <c r="BR78" s="14"/>
@@ -20690,10 +20778,10 @@
         <v>8.25</v>
       </c>
       <c r="CD78" s="11">
-        <v>146.3</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="CE78" s="11">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="CF78" s="11">
         <v>7.41</v>
@@ -20702,7 +20790,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="79" ht="18.3" customHeight="1">
+    <row r="79" spans="1:85" ht="18.25" customHeight="1">
       <c r="A79" s="9">
         <v>84</v>
       </c>
@@ -20902,23 +20990,23 @@
       <c r="BO79" s="13">
         <v>44376</v>
       </c>
-      <c r="BP79" t="s" s="12">
-        <v>115</v>
-      </c>
-      <c r="BQ79" t="s" s="12">
-        <v>86</v>
+      <c r="BP79" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ79" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="BR79" s="11">
         <v>411</v>
       </c>
       <c r="BS79" s="11">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="BT79" s="11">
         <v>2956</v>
       </c>
-      <c r="BU79" t="s" s="12">
-        <v>118</v>
+      <c r="BU79" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="BV79" s="11">
         <v>139</v>
@@ -20954,10 +21042,10 @@
         <v>6.67</v>
       </c>
       <c r="CG79" s="11">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="80" ht="18.3" customHeight="1">
+    <row r="80" spans="1:85" ht="18.25" customHeight="1">
       <c r="A80" s="9">
         <v>85</v>
       </c>
@@ -21155,8 +21243,8 @@
         <v>1948</v>
       </c>
       <c r="BO80" s="13"/>
-      <c r="BP80" t="s" s="12">
-        <v>94</v>
+      <c r="BP80" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ80" s="14"/>
       <c r="BR80" s="14"/>
@@ -21191,10 +21279,10 @@
         <v>5.19</v>
       </c>
       <c r="CG80" s="11">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="81" ht="18.3" customHeight="1">
+    <row r="81" spans="1:85" ht="18.25" customHeight="1">
       <c r="A81" s="9">
         <v>86</v>
       </c>
@@ -21392,8 +21480,8 @@
         <v>2362</v>
       </c>
       <c r="BO81" s="13"/>
-      <c r="BP81" t="s" s="12">
-        <v>94</v>
+      <c r="BP81" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ81" s="14"/>
       <c r="BR81" s="14"/>
@@ -21431,7 +21519,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="82" ht="18.3" customHeight="1">
+    <row r="82" spans="1:85" ht="18.25" customHeight="1">
       <c r="A82" s="9">
         <v>87</v>
       </c>
@@ -21629,8 +21717,8 @@
         <v>2222</v>
       </c>
       <c r="BO82" s="13"/>
-      <c r="BP82" t="s" s="12">
-        <v>94</v>
+      <c r="BP82" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ82" s="14"/>
       <c r="BR82" s="14"/>
@@ -21653,7 +21741,7 @@
         <v>0.99</v>
       </c>
       <c r="CC82" s="11">
-        <v>9.380000000000001</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="CD82" s="11">
         <v>169.1</v>
@@ -21668,7 +21756,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="83" ht="18.3" customHeight="1">
+    <row r="83" spans="1:85" ht="18.25" customHeight="1">
       <c r="A83" s="9">
         <v>88</v>
       </c>
@@ -21866,8 +21954,8 @@
         <v>1966</v>
       </c>
       <c r="BO83" s="13"/>
-      <c r="BP83" t="s" s="12">
-        <v>94</v>
+      <c r="BP83" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ83" s="14"/>
       <c r="BR83" s="14"/>
@@ -21905,7 +21993,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="84" ht="18.3" customHeight="1">
+    <row r="84" spans="1:85" ht="18.25" customHeight="1">
       <c r="A84" s="9">
         <v>89</v>
       </c>
@@ -22103,8 +22191,8 @@
         <v>2236</v>
       </c>
       <c r="BO84" s="13"/>
-      <c r="BP84" t="s" s="12">
-        <v>94</v>
+      <c r="BP84" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ84" s="14"/>
       <c r="BR84" s="14"/>
@@ -22130,7 +22218,7 @@
         <v>6.16</v>
       </c>
       <c r="CD84" s="11">
-        <v>159.7</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="CE84" s="11">
         <v>3.18</v>
@@ -22142,7 +22230,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="85" ht="18.3" customHeight="1">
+    <row r="85" spans="1:85" ht="18.25" customHeight="1">
       <c r="A85" s="9">
         <v>90</v>
       </c>
@@ -22340,8 +22428,8 @@
         <v>2689</v>
       </c>
       <c r="BO85" s="13"/>
-      <c r="BP85" t="s" s="12">
-        <v>94</v>
+      <c r="BP85" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ85" s="14"/>
       <c r="BR85" s="14"/>
@@ -22376,10 +22464,10 @@
         <v>6.05</v>
       </c>
       <c r="CG85" s="11">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="86" ht="18.3" customHeight="1">
+    <row r="86" spans="1:85" ht="18.25" customHeight="1">
       <c r="A86" s="9">
         <v>91</v>
       </c>
@@ -22577,8 +22665,8 @@
         <v>2839</v>
       </c>
       <c r="BO86" s="13"/>
-      <c r="BP86" t="s" s="12">
-        <v>94</v>
+      <c r="BP86" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ86" s="14"/>
       <c r="BR86" s="14"/>
@@ -22613,10 +22701,10 @@
         <v>6.57</v>
       </c>
       <c r="CG86" s="11">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="87" ht="18.3" customHeight="1">
+    <row r="87" spans="1:85" ht="18.25" customHeight="1">
       <c r="A87" s="9">
         <v>92</v>
       </c>
@@ -22806,8 +22894,8 @@
       <c r="BK87" s="11">
         <v>72</v>
       </c>
-      <c r="BL87" t="s" s="12">
-        <v>119</v>
+      <c r="BL87" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="BM87" s="11">
         <v>32</v>
@@ -22816,8 +22904,8 @@
         <v>2515</v>
       </c>
       <c r="BO87" s="13"/>
-      <c r="BP87" t="s" s="12">
-        <v>94</v>
+      <c r="BP87" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ87" s="14"/>
       <c r="BR87" s="14"/>
@@ -22843,7 +22931,7 @@
         <v>6.25</v>
       </c>
       <c r="CD87" s="11">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="CE87" s="11">
         <v>3.58</v>
@@ -22852,10 +22940,10 @@
         <v>6.16</v>
       </c>
       <c r="CG87" s="11">
-        <v>0.264</v>
+        <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="88" ht="18.3" customHeight="1">
+    <row r="88" spans="1:85" ht="18.25" customHeight="1">
       <c r="A88" s="9">
         <v>93</v>
       </c>
@@ -23055,11 +23143,11 @@
       <c r="BO88" s="13">
         <v>44376</v>
       </c>
-      <c r="BP88" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ88" t="s" s="12">
-        <v>86</v>
+      <c r="BP88" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ88" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="BR88" s="11">
         <v>647</v>
@@ -23070,8 +23158,8 @@
       <c r="BT88" s="11">
         <v>5313</v>
       </c>
-      <c r="BU88" t="s" s="12">
-        <v>120</v>
+      <c r="BU88" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="BV88" s="11">
         <v>122</v>
@@ -23104,13 +23192,13 @@
         <v>2.68</v>
       </c>
       <c r="CF88" s="11">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="CG88" s="11">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="89" ht="18.3" customHeight="1">
+    <row r="89" spans="1:85" ht="18.25" customHeight="1">
       <c r="A89" s="9">
         <v>96</v>
       </c>
@@ -23308,8 +23396,8 @@
         <v>2898</v>
       </c>
       <c r="BO89" s="13"/>
-      <c r="BP89" t="s" s="12">
-        <v>94</v>
+      <c r="BP89" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ89" s="14"/>
       <c r="BR89" s="14"/>
@@ -23332,7 +23420,7 @@
         <v>0.66</v>
       </c>
       <c r="CC89" s="11">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="CD89" s="11">
         <v>46.4</v>
@@ -23344,10 +23432,10 @@
         <v>5.73</v>
       </c>
       <c r="CG89" s="11">
-        <v>0.256</v>
+        <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="90" ht="18.3" customHeight="1">
+    <row r="90" spans="1:85" ht="18.25" customHeight="1">
       <c r="A90" s="9">
         <v>97</v>
       </c>
@@ -23545,8 +23633,8 @@
         <v>2549</v>
       </c>
       <c r="BO90" s="13"/>
-      <c r="BP90" t="s" s="12">
-        <v>94</v>
+      <c r="BP90" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ90" s="14"/>
       <c r="BR90" s="14"/>
@@ -23581,10 +23669,10 @@
         <v>5.87</v>
       </c>
       <c r="CG90" s="11">
-        <v>0.263</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="91" ht="18.3" customHeight="1">
+    <row r="91" spans="1:85" ht="18.25" customHeight="1">
       <c r="A91" s="9">
         <v>98</v>
       </c>
@@ -23782,8 +23870,8 @@
         <v>3643</v>
       </c>
       <c r="BO91" s="13"/>
-      <c r="BP91" t="s" s="12">
-        <v>94</v>
+      <c r="BP91" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ91" s="14"/>
       <c r="BR91" s="14"/>
@@ -23803,7 +23891,7 @@
         <v>1.75</v>
       </c>
       <c r="CB91" s="11">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="CC91" s="11">
         <v>7.96</v>
@@ -23818,10 +23906,10 @@
         <v>5.8</v>
       </c>
       <c r="CG91" s="11">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="92" ht="18.3" customHeight="1">
+    <row r="92" spans="1:85" ht="18.25" customHeight="1">
       <c r="A92" s="9">
         <v>99</v>
       </c>
@@ -24021,23 +24109,23 @@
       <c r="BO92" s="13">
         <v>44376</v>
       </c>
-      <c r="BP92" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ92" t="s" s="12">
-        <v>86</v>
+      <c r="BP92" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ92" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="BR92" s="11">
         <v>535</v>
       </c>
       <c r="BS92" s="11">
-        <v>0.208</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="BT92" s="11">
         <v>3817</v>
       </c>
-      <c r="BU92" t="s" s="12">
-        <v>121</v>
+      <c r="BU92" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="BV92" s="11">
         <v>140</v>
@@ -24073,10 +24161,10 @@
         <v>5.83</v>
       </c>
       <c r="CG92" s="11">
-        <v>0.256</v>
+        <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="93" ht="18.3" customHeight="1">
+    <row r="93" spans="1:85" ht="18.25" customHeight="1">
       <c r="A93" s="9">
         <v>100</v>
       </c>
@@ -24274,8 +24362,8 @@
         <v>2573</v>
       </c>
       <c r="BO93" s="13"/>
-      <c r="BP93" t="s" s="12">
-        <v>115</v>
+      <c r="BP93" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="BQ93" s="14"/>
       <c r="BR93" s="14"/>
@@ -24313,7 +24401,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="94" ht="18.3" customHeight="1">
+    <row r="94" spans="1:85" ht="18.25" customHeight="1">
       <c r="A94" s="9">
         <v>101</v>
       </c>
@@ -24511,8 +24599,8 @@
         <v>2380</v>
       </c>
       <c r="BO94" s="13"/>
-      <c r="BP94" t="s" s="12">
-        <v>115</v>
+      <c r="BP94" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="BQ94" s="14"/>
       <c r="BR94" s="14"/>
@@ -24547,10 +24635,10 @@
         <v>5.47</v>
       </c>
       <c r="CG94" s="11">
-        <v>0.257</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="95" ht="18.3" customHeight="1">
+    <row r="95" spans="1:85" ht="18.25" customHeight="1">
       <c r="A95" s="9">
         <v>102</v>
       </c>
@@ -24750,23 +24838,23 @@
       <c r="BO95" s="13">
         <v>44373</v>
       </c>
-      <c r="BP95" t="s" s="12">
-        <v>115</v>
-      </c>
-      <c r="BQ95" t="s" s="12">
-        <v>122</v>
+      <c r="BP95" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ95" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="BR95" s="11">
         <v>499</v>
       </c>
       <c r="BS95" s="11">
-        <v>0.179</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="BT95" s="11">
         <v>2899</v>
       </c>
-      <c r="BU95" t="s" s="12">
-        <v>123</v>
+      <c r="BU95" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="BV95" s="11">
         <v>172</v>
@@ -24802,10 +24890,10 @@
         <v>6.57</v>
       </c>
       <c r="CG95" s="11">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="96" ht="18.3" customHeight="1">
+    <row r="96" spans="1:85" ht="18.25" customHeight="1">
       <c r="A96" s="9">
         <v>103</v>
       </c>
@@ -25005,11 +25093,11 @@
       <c r="BO96" s="13">
         <v>44373</v>
       </c>
-      <c r="BP96" t="s" s="12">
-        <v>115</v>
-      </c>
-      <c r="BQ96" t="s" s="12">
-        <v>122</v>
+      <c r="BP96" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ96" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="BR96" s="11">
         <v>575</v>
@@ -25020,8 +25108,8 @@
       <c r="BT96" s="11">
         <v>2921</v>
       </c>
-      <c r="BU96" t="s" s="12">
-        <v>124</v>
+      <c r="BU96" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="BV96" s="11">
         <v>197</v>
@@ -25057,10 +25145,10 @@
         <v>6.38</v>
       </c>
       <c r="CG96" s="11">
-        <v>0.304</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="97" ht="18.3" customHeight="1">
+    <row r="97" spans="1:85" ht="18.25" customHeight="1">
       <c r="A97" s="9">
         <v>104</v>
       </c>
@@ -25258,8 +25346,8 @@
         <v>2517</v>
       </c>
       <c r="BO97" s="13"/>
-      <c r="BP97" t="s" s="12">
-        <v>94</v>
+      <c r="BP97" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ97" s="14"/>
       <c r="BR97" s="14"/>
@@ -25285,7 +25373,7 @@
         <v>5.57</v>
       </c>
       <c r="CD97" s="11">
-        <v>151.3</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="CE97" s="11">
         <v>3.83</v>
@@ -25294,10 +25382,10 @@
         <v>6.59</v>
       </c>
       <c r="CG97" s="11">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="98" ht="18.3" customHeight="1">
+    <row r="98" spans="1:85" ht="18.25" customHeight="1">
       <c r="A98" s="9">
         <v>105</v>
       </c>
@@ -25495,8 +25583,8 @@
         <v>2188</v>
       </c>
       <c r="BO98" s="13"/>
-      <c r="BP98" t="s" s="12">
-        <v>94</v>
+      <c r="BP98" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ98" s="14"/>
       <c r="BR98" s="14"/>
@@ -25522,7 +25610,7 @@
         <v>4.78</v>
       </c>
       <c r="CD98" s="11">
-        <v>94.40000000000001</v>
+        <v>94.4</v>
       </c>
       <c r="CE98" s="11">
         <v>3.6</v>
@@ -25534,7 +25622,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="99" ht="18.3" customHeight="1">
+    <row r="99" spans="1:85" ht="18.25" customHeight="1">
       <c r="A99" s="9">
         <v>106</v>
       </c>
@@ -25732,11 +25820,11 @@
         <v>2590</v>
       </c>
       <c r="BO99" s="13"/>
-      <c r="BP99" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ99" t="s" s="12">
-        <v>125</v>
+      <c r="BP99" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ99" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="BR99" s="11">
         <v>584</v>
@@ -25747,8 +25835,8 @@
       <c r="BT99" s="11">
         <v>2871</v>
       </c>
-      <c r="BU99" t="s" s="12">
-        <v>126</v>
+      <c r="BU99" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="BV99" s="11">
         <v>203</v>
@@ -25775,7 +25863,7 @@
         <v>6.63</v>
       </c>
       <c r="CD99" s="11">
-        <v>146.3</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="CE99" s="11">
         <v>3.57</v>
@@ -25787,7 +25875,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="100" ht="18.3" customHeight="1">
+    <row r="100" spans="1:85" ht="18.25" customHeight="1">
       <c r="A100" s="9">
         <v>107</v>
       </c>
@@ -25985,8 +26073,8 @@
         <v>2993</v>
       </c>
       <c r="BO100" s="13"/>
-      <c r="BP100" t="s" s="12">
-        <v>115</v>
+      <c r="BP100" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="BQ100" s="14"/>
       <c r="BR100" s="14"/>
@@ -26009,7 +26097,7 @@
         <v>1.2</v>
       </c>
       <c r="CC100" s="11">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="CD100" s="11">
         <v>111.9</v>
@@ -26021,10 +26109,10 @@
         <v>8.84</v>
       </c>
       <c r="CG100" s="11">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="101" ht="18.3" customHeight="1">
+    <row r="101" spans="1:85" ht="18.25" customHeight="1">
       <c r="A101" s="9">
         <v>108</v>
       </c>
@@ -26222,8 +26310,8 @@
         <v>2519</v>
       </c>
       <c r="BO101" s="13"/>
-      <c r="BP101" t="s" s="12">
-        <v>94</v>
+      <c r="BP101" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ101" s="14"/>
       <c r="BR101" s="14"/>
@@ -26249,19 +26337,19 @@
         <v>3.72</v>
       </c>
       <c r="CD101" s="11">
-        <v>73.90000000000001</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="CE101" s="11">
         <v>4.91</v>
       </c>
       <c r="CF101" s="11">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="CG101" s="11">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="102" ht="18.3" customHeight="1">
+    <row r="102" spans="1:85" ht="18.25" customHeight="1">
       <c r="A102" s="9">
         <v>109</v>
       </c>
@@ -26461,23 +26549,23 @@
       <c r="BO102" s="13">
         <v>44374</v>
       </c>
-      <c r="BP102" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ102" t="s" s="12">
-        <v>127</v>
+      <c r="BP102" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ102" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="BR102" s="11">
         <v>523</v>
       </c>
       <c r="BS102" s="11">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="BT102" s="11">
         <v>2846</v>
       </c>
-      <c r="BU102" t="s" s="12">
-        <v>128</v>
+      <c r="BU102" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="BV102" s="11">
         <v>184</v>
@@ -26489,7 +26577,7 @@
         <v>179</v>
       </c>
       <c r="BY102" s="11">
-        <v>67.90000000000001</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="BZ102" s="11">
         <v>5.87</v>
@@ -26504,19 +26592,19 @@
         <v>7.19</v>
       </c>
       <c r="CD102" s="11">
-        <v>89.90000000000001</v>
+        <v>89.9</v>
       </c>
       <c r="CE102" s="11">
         <v>4.97</v>
       </c>
       <c r="CF102" s="11">
-        <v>8.550000000000001</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="CG102" s="11">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="103" ht="18.3" customHeight="1">
+    <row r="103" spans="1:85" ht="18.25" customHeight="1">
       <c r="A103" s="9">
         <v>110</v>
       </c>
@@ -26714,8 +26802,8 @@
         <v>1712</v>
       </c>
       <c r="BO103" s="13"/>
-      <c r="BP103" t="s" s="12">
-        <v>115</v>
+      <c r="BP103" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="BQ103" s="14"/>
       <c r="BR103" s="14"/>
@@ -26747,13 +26835,13 @@
         <v>2.85</v>
       </c>
       <c r="CF103" s="11">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="CG103" s="11">
-        <v>0.237</v>
+        <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="104" ht="18.3" customHeight="1">
+    <row r="104" spans="1:85" ht="18.25" customHeight="1">
       <c r="A104" s="9">
         <v>111</v>
       </c>
@@ -26951,8 +27039,8 @@
         <v>2593</v>
       </c>
       <c r="BO104" s="13"/>
-      <c r="BP104" t="s" s="12">
-        <v>115</v>
+      <c r="BP104" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="BQ104" s="14"/>
       <c r="BR104" s="14"/>
@@ -26987,10 +27075,10 @@
         <v>6.17</v>
       </c>
       <c r="CG104" s="11">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="105" ht="18.3" customHeight="1">
+    <row r="105" spans="1:85" ht="18.25" customHeight="1">
       <c r="A105" s="9">
         <v>112</v>
       </c>
@@ -27190,23 +27278,23 @@
       <c r="BO105" s="13">
         <v>44374</v>
       </c>
-      <c r="BP105" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ105" t="s" s="12">
-        <v>129</v>
+      <c r="BP105" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ105" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="BR105" s="11">
         <v>537</v>
       </c>
       <c r="BS105" s="11">
-        <v>0.209</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="BT105" s="11">
         <v>2764</v>
       </c>
-      <c r="BU105" t="s" s="12">
-        <v>130</v>
+      <c r="BU105" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="BV105" s="11">
         <v>194</v>
@@ -27242,10 +27330,10 @@
         <v>6.17</v>
       </c>
       <c r="CG105" s="11">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="106" ht="18.3" customHeight="1">
+    <row r="106" spans="1:85" ht="18.25" customHeight="1">
       <c r="A106" s="9">
         <v>113</v>
       </c>
@@ -27443,8 +27531,8 @@
         <v>2822</v>
       </c>
       <c r="BO106" s="13"/>
-      <c r="BP106" t="s" s="12">
-        <v>94</v>
+      <c r="BP106" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ106" s="14"/>
       <c r="BR106" s="14"/>
@@ -27479,10 +27567,10 @@
         <v>4.87</v>
       </c>
       <c r="CG106" s="11">
-        <v>0.207</v>
+        <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="107" ht="18.3" customHeight="1">
+    <row r="107" spans="1:85" ht="18.25" customHeight="1">
       <c r="A107" s="9">
         <v>114</v>
       </c>
@@ -27682,23 +27770,23 @@
       <c r="BO107" s="13">
         <v>44374</v>
       </c>
-      <c r="BP107" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="BQ107" t="s" s="12">
-        <v>131</v>
+      <c r="BP107" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ107" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="BR107" s="11">
         <v>575</v>
       </c>
       <c r="BS107" s="11">
-        <v>0.197</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="BT107" s="11">
         <v>2935</v>
       </c>
-      <c r="BU107" t="s" s="12">
-        <v>132</v>
+      <c r="BU107" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="BV107" s="11">
         <v>196</v>
@@ -27734,10 +27822,10 @@
         <v>5.49</v>
       </c>
       <c r="CG107" s="11">
-        <v>0.233</v>
+        <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="108" ht="18.3" customHeight="1">
+    <row r="108" spans="1:85" ht="18.25" customHeight="1">
       <c r="A108" s="9">
         <v>115</v>
       </c>
@@ -27935,8 +28023,8 @@
         <v>2485</v>
       </c>
       <c r="BO108" s="13"/>
-      <c r="BP108" t="s" s="12">
-        <v>94</v>
+      <c r="BP108" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ108" s="14"/>
       <c r="BR108" s="14"/>
@@ -27971,10 +28059,10 @@
         <v>6.95</v>
       </c>
       <c r="CG108" s="11">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="109" ht="18.3" customHeight="1">
+    <row r="109" spans="1:85" ht="18.25" customHeight="1">
       <c r="A109" s="9">
         <v>116</v>
       </c>
@@ -28172,8 +28260,8 @@
         <v>2474</v>
       </c>
       <c r="BO109" s="13"/>
-      <c r="BP109" t="s" s="12">
-        <v>94</v>
+      <c r="BP109" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ109" s="14"/>
       <c r="BR109" s="14"/>
@@ -28202,7 +28290,7 @@
         <v>209.1</v>
       </c>
       <c r="CE109" s="11">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="CF109" s="11">
         <v>7.64</v>
@@ -28211,7 +28299,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="110" ht="18.3" customHeight="1">
+    <row r="110" spans="1:85" ht="18.25" customHeight="1">
       <c r="A110" s="9">
         <v>117</v>
       </c>
@@ -28409,8 +28497,8 @@
         <v>2561</v>
       </c>
       <c r="BO110" s="13"/>
-      <c r="BP110" t="s" s="12">
-        <v>94</v>
+      <c r="BP110" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ110" s="14"/>
       <c r="BR110" s="14"/>
@@ -28433,7 +28521,7 @@
         <v>0.46</v>
       </c>
       <c r="CC110" s="11">
-        <v>8.550000000000001</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="CD110" s="11">
         <v>79</v>
@@ -28445,10 +28533,10 @@
         <v>7.46</v>
       </c>
       <c r="CG110" s="11">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="111" ht="18.3" customHeight="1">
+    <row r="111" spans="1:85" ht="18.25" customHeight="1">
       <c r="A111" s="9">
         <v>118</v>
       </c>
@@ -28646,8 +28734,8 @@
         <v>2448</v>
       </c>
       <c r="BO111" s="13"/>
-      <c r="BP111" t="s" s="12">
-        <v>94</v>
+      <c r="BP111" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ111" s="14"/>
       <c r="BR111" s="14"/>
@@ -28682,10 +28770,10 @@
         <v>7.09</v>
       </c>
       <c r="CG111" s="11">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="112" ht="18.3" customHeight="1">
+    <row r="112" spans="1:85" ht="18.25" customHeight="1">
       <c r="A112" s="9">
         <v>119</v>
       </c>
@@ -28883,8 +28971,8 @@
         <v>2462</v>
       </c>
       <c r="BO112" s="13"/>
-      <c r="BP112" t="s" s="12">
-        <v>94</v>
+      <c r="BP112" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ112" s="14"/>
       <c r="BR112" s="14"/>
@@ -28919,10 +29007,10 @@
         <v>6.69</v>
       </c>
       <c r="CG112" s="11">
-        <v>0.279</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="113" ht="18.3" customHeight="1">
+    <row r="113" spans="1:85" ht="18.25" customHeight="1">
       <c r="A113" s="9">
         <v>120</v>
       </c>
@@ -29120,8 +29208,8 @@
         <v>2617</v>
       </c>
       <c r="BO113" s="13"/>
-      <c r="BP113" t="s" s="12">
-        <v>94</v>
+      <c r="BP113" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ113" s="14"/>
       <c r="BR113" s="14"/>
@@ -29156,10 +29244,10 @@
         <v>5.5</v>
       </c>
       <c r="CG113" s="11">
-        <v>0.241</v>
+        <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="114" ht="18.3" customHeight="1">
+    <row r="114" spans="1:85" ht="18.25" customHeight="1">
       <c r="A114" s="9">
         <v>121</v>
       </c>
@@ -29357,8 +29445,8 @@
         <v>2236</v>
       </c>
       <c r="BO114" s="13"/>
-      <c r="BP114" t="s" s="12">
-        <v>94</v>
+      <c r="BP114" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="BQ114" s="14"/>
       <c r="BR114" s="14"/>
@@ -29375,7 +29463,7 @@
         <v>6.26</v>
       </c>
       <c r="CA114" s="11">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="CB114" s="11">
         <v>0.36</v>
@@ -29393,12 +29481,13 @@
         <v>5.68</v>
       </c>
       <c r="CG114" s="11">
-        <v>0.269</v>
+        <v>0.26900000000000002</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
